--- a/outputs/CAPM_results_244604.xlsx
+++ b/outputs/CAPM_results_244604.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0228935863208572</v>
+        <v>0.02289359089551108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6684976875420102</v>
+        <v>0.6684974821040766</v>
       </c>
       <c r="D2" t="n">
-        <v>2.424177827469977</v>
+        <v>2.424178745011687</v>
       </c>
       <c r="E2" t="n">
-        <v>3.075604012170101</v>
+        <v>3.075603616526197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1445071098172275</v>
+        <v>0.1445070780111832</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.003826506390251482</v>
+        <v>-0.00382651001600512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4263669772579273</v>
+        <v>0.4263669510794359</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6736926610718292</v>
+        <v>-0.6736932471460094</v>
       </c>
       <c r="E3" t="n">
-        <v>3.261540680910359</v>
+        <v>3.261540227581577</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1596342006994964</v>
+        <v>0.1596341634075729</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003108075026582529</v>
+        <v>0.003108076478250521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8352001794904829</v>
+        <v>0.8352000134134372</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3405831954843361</v>
+        <v>0.3405833514016364</v>
       </c>
       <c r="E4" t="n">
-        <v>3.976510805289318</v>
+        <v>3.976509977716542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2201929713811499</v>
+        <v>0.2201928999110128</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01509048230056815</v>
+        <v>-0.0150904830526181</v>
       </c>
       <c r="C5" t="n">
-        <v>1.223245107129347</v>
+        <v>1.223245244582631</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.959125591434708</v>
+        <v>-1.959125563394605</v>
       </c>
       <c r="E5" t="n">
-        <v>6.900054333059592</v>
+        <v>6.900054665774195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4595155414998627</v>
+        <v>0.4595155654513647</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01031180962487821</v>
+        <v>0.01031181268597004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4320668202698189</v>
+        <v>0.4320668177594673</v>
       </c>
       <c r="D6" t="n">
-        <v>1.890130889360313</v>
+        <v>1.890131405825523</v>
       </c>
       <c r="E6" t="n">
-        <v>3.441024586105411</v>
+        <v>3.441024484870398</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1745362134191496</v>
+        <v>0.1745362049418697</v>
       </c>
     </row>
   </sheetData>
